--- a/projects/test_building/input/Scenario_CoolingTechnology_Cost_Labor.xlsx
+++ b/projects/test_building/input/Scenario_CoolingTechnology_Cost_Labor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D424EFFB-075D-1F4D-A0DD-A15DE43B13C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E78D81-F91E-2C44-A79F-B1DCE56DFA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="5140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AQ2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
